--- a/vaadin-spreadsheet/src/test/resources/test_sheets/merged_aligned.xlsx
+++ b/vaadin-spreadsheet/src/test/resources/test_sheets/merged_aligned.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Downloads\Tagetik\TAG89\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\GIT\tagetik-2017-spreadsheet-1.4\tagetik-2017-spreadsheet\vaadin-spreadsheet\src\test\resources\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
